--- a/Comparacao_contours54BND.xlsx
+++ b/Comparacao_contours54BND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33204DD-9B85-42F6-A3FA-CCDAE282642D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290B3379-2C38-45AE-B0B4-2C9FC4CBC716}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.05" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -436,6 +436,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,22 +775,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="3" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -802,14 +803,15 @@
       <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -823,14 +825,15 @@
         <f>C2/$C$56</f>
         <v>0.52853304677875346</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="14"/>
+      <c r="F2" s="8">
         <v>0.22769800000000001</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>6.4909999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -844,14 +847,15 @@
         <f t="shared" ref="D3:D55" si="0">C3/$C$56</f>
         <v>0.50138925776422305</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="14"/>
+      <c r="F3" s="8">
         <v>0.21872900000000001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>0.15590999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -865,14 +869,15 @@
         <f t="shared" si="0"/>
         <v>0.50399571567273105</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="14"/>
+      <c r="F4" s="8">
         <v>0.16520799999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>4.0589E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -886,14 +891,15 @@
         <f t="shared" si="0"/>
         <v>0.46846178534471639</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="14"/>
+      <c r="F5" s="8">
         <v>0.30379800000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>0.10391300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -907,14 +913,15 @@
         <f t="shared" si="0"/>
         <v>0.34518776107695393</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="14"/>
+      <c r="F6" s="8">
         <v>0.227157</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>0.15550800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -928,14 +935,15 @@
         <f t="shared" si="0"/>
         <v>0.50389843531931899</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="14"/>
+      <c r="F7" s="8">
         <v>0.17494799999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>7.0831000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -949,14 +957,15 @@
         <f t="shared" si="0"/>
         <v>0.53385357174589254</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="14"/>
+      <c r="F8" s="8">
         <v>0.40174100000000001</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>6.0528999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -970,14 +979,15 @@
         <f t="shared" si="0"/>
         <v>0.50736672978446196</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="14"/>
+      <c r="F9" s="8">
         <v>0.24038699999999999</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>0.13486400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -991,14 +1001,15 @@
         <f t="shared" si="0"/>
         <v>0.51037791030373947</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="14"/>
+      <c r="F10" s="8">
         <v>0.206925</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>0.12578400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1012,14 +1023,15 @@
         <f t="shared" si="0"/>
         <v>0.50307011790556699</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="14"/>
+      <c r="F11" s="8">
         <v>0.14896300000000001</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>6.0044E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1033,14 +1045,15 @@
         <f t="shared" si="0"/>
         <v>0.51480337853004554</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="14"/>
+      <c r="F12" s="8">
         <v>0.61482099999999995</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>0.32380999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1054,14 +1067,15 @@
         <f t="shared" si="0"/>
         <v>0.51068158859608148</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="14"/>
+      <c r="F13" s="8">
         <v>0.76878500000000005</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>0.19509399999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1075,14 +1089,15 @@
         <f t="shared" si="0"/>
         <v>0.77761029522501302</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="14"/>
+      <c r="F14" s="8">
         <v>0.76208799999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>0.486904</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1096,14 +1111,15 @@
         <f t="shared" si="0"/>
         <v>0.35354028562474138</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="14"/>
+      <c r="F15" s="8">
         <v>0.18540300000000001</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>3.0539E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1117,14 +1133,15 @@
         <f t="shared" si="0"/>
         <v>0.37477764246752648</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="14"/>
+      <c r="F16" s="8">
         <v>0.14846300000000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>6.8833000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1138,14 +1155,15 @@
         <f t="shared" si="0"/>
         <v>0.47669690638173984</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="14"/>
+      <c r="F17" s="8">
         <v>0.27120499999999997</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <v>8.2303000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1159,14 +1177,15 @@
         <f t="shared" si="0"/>
         <v>0.48331878260054689</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="14"/>
+      <c r="F18" s="8">
         <v>0.17042499999999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <v>7.6034000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1180,14 +1199,15 @@
         <f t="shared" si="0"/>
         <v>0.34445439605528627</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="14"/>
+      <c r="F19" s="8">
         <v>0.299456</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <v>0.13539399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1201,14 +1221,15 @@
         <f t="shared" si="0"/>
         <v>0.7566020253819995</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="14"/>
+      <c r="F20" s="8">
         <v>0.66976500000000005</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <v>0.153087</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1222,14 +1243,15 @@
         <f t="shared" si="0"/>
         <v>0.52040132168875453</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="14"/>
+      <c r="F21" s="8">
         <v>0.44046200000000002</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <v>0.16022900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1243,14 +1265,15 @@
         <f t="shared" si="0"/>
         <v>0.38632309993388336</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="14"/>
+      <c r="F22" s="8">
         <v>0.39765899999999998</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <v>0.29169499999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1264,14 +1287,15 @@
         <f t="shared" si="0"/>
         <v>0.51621636452894648</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="14"/>
+      <c r="F23" s="8">
         <v>0.78525999999999996</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <v>0.61427299999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1285,14 +1309,15 @@
         <f t="shared" si="0"/>
         <v>0.50001836581033698</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="14"/>
+      <c r="F24" s="8">
         <v>0.65768099999999996</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>0.44308199999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1306,14 +1331,15 @@
         <f t="shared" si="0"/>
         <v>0.68915959049741904</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="14"/>
+      <c r="F25" s="8">
         <v>0.72621100000000005</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <v>0.47788199999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1327,14 +1353,15 @@
         <f t="shared" si="0"/>
         <v>0.75116025423525845</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="14"/>
+      <c r="F26" s="8">
         <v>0.93082799999999999</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <v>0.53778000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1348,14 +1375,15 @@
         <f t="shared" si="0"/>
         <v>0.74980520141804796</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="14"/>
+      <c r="F27" s="8">
         <v>0.88909300000000002</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <v>0.38292700000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1369,14 +1397,15 @@
         <f t="shared" si="0"/>
         <v>0.53462609469991351</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="14"/>
+      <c r="F28" s="8">
         <v>0.76297700000000002</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <v>0.50174799999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -1390,14 +1419,15 @@
         <f t="shared" si="0"/>
         <v>0.74731493670528948</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="14"/>
+      <c r="F29" s="8">
         <v>0.78857100000000002</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <v>0.32491900000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -1411,14 +1441,15 @@
         <f t="shared" si="0"/>
         <v>0.53051503367825048</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="14"/>
+      <c r="F30" s="8">
         <v>0.74150000000000005</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="6">
         <v>0.159188</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -1432,14 +1463,15 @@
         <f t="shared" si="0"/>
         <v>0.50609097208916398</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="14"/>
+      <c r="F31" s="8">
         <v>0.67496400000000001</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <v>0.399171</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -1453,14 +1485,15 @@
         <f t="shared" si="0"/>
         <v>0.73491961810981199</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="14"/>
+      <c r="F32" s="8">
         <v>0.88836300000000001</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <v>0.58284400000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1474,14 +1507,15 @@
         <f t="shared" si="0"/>
         <v>0.81172610760628605</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="14"/>
+      <c r="F33" s="8">
         <v>0.91929799999999995</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <v>0.57755500000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -1495,14 +1529,15 @@
         <f t="shared" si="0"/>
         <v>0.75019167939815501</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="14"/>
+      <c r="F34" s="8">
         <v>0.93340900000000004</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <v>0.488927</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -1516,14 +1551,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="14"/>
+      <c r="F35" s="8">
         <v>0.93057000000000001</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <v>0.450154</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -1537,14 +1573,15 @@
         <f t="shared" si="0"/>
         <v>0.51375846185667851</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="14"/>
+      <c r="F36" s="8">
         <v>0.86926099999999995</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <v>0.53374900000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -1558,14 +1595,15 @@
         <f t="shared" si="0"/>
         <v>0.52180504424978547</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="14"/>
+      <c r="F37" s="8">
         <v>0.91250399999999998</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <v>0.55821399999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -1579,14 +1617,15 @@
         <f t="shared" si="0"/>
         <v>0.70956675225330545</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="14"/>
+      <c r="F38" s="8">
         <v>0.90431099999999998</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="6">
         <v>0.46475699999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -1600,14 +1639,15 @@
         <f t="shared" si="0"/>
         <v>0.74853510359264952</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="14"/>
+      <c r="F39" s="8">
         <v>0.90423600000000004</v>
       </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6">
         <v>0.52638099999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -1621,14 +1661,15 @@
         <f t="shared" si="0"/>
         <v>0.49588557654020321</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="14"/>
+      <c r="F40" s="8">
         <v>0.74711700000000003</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="6">
         <v>0.36332199999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -1642,14 +1683,15 @@
         <f t="shared" si="0"/>
         <v>0.75694399565972048</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="14"/>
+      <c r="F41" s="8">
         <v>0.89873400000000003</v>
       </c>
-      <c r="F41" s="6">
+      <c r="G41" s="6">
         <v>0.57440999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -1663,14 +1705,15 @@
         <f t="shared" si="0"/>
         <v>0.51767162443437553</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="14"/>
+      <c r="F42" s="8">
         <v>0.85900600000000005</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <v>0.531775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -1684,14 +1727,15 @@
         <f t="shared" si="0"/>
         <v>0.53977504621567751</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="14"/>
+      <c r="F43" s="8">
         <v>0.72704800000000003</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43" s="6">
         <v>0.28867799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1705,14 +1749,15 @@
         <f t="shared" si="0"/>
         <v>0.47841117928716981</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="14"/>
+      <c r="F44" s="8">
         <v>0.64593699999999998</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <v>0.29030299999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -1726,14 +1771,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="14"/>
+      <c r="F45" s="8">
         <v>0.91262399999999999</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G45" s="6">
         <v>0.48878199999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -1747,14 +1793,15 @@
         <f t="shared" si="0"/>
         <v>0.67310100833189346</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="14"/>
+      <c r="F46" s="8">
         <v>0.85257400000000005</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <v>0.46570299999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
@@ -1768,14 +1815,15 @@
         <f t="shared" si="0"/>
         <v>0.74741257982396847</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="14"/>
+      <c r="F47" s="8">
         <v>0.92509799999999998</v>
       </c>
-      <c r="F47" s="6">
+      <c r="G47" s="6">
         <v>0.57866700000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
@@ -1789,14 +1837,15 @@
         <f t="shared" si="0"/>
         <v>0.50131613911588946</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="14"/>
+      <c r="F48" s="8">
         <v>0.86177000000000004</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <v>0.46397500000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
@@ -1810,14 +1859,15 @@
         <f t="shared" si="0"/>
         <v>0.7451232307817115</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="14"/>
+      <c r="F49" s="8">
         <v>0.92680600000000002</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <v>0.50206600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -1831,14 +1881,15 @@
         <f t="shared" si="0"/>
         <v>0.75923193679964096</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="14"/>
+      <c r="F50" s="8">
         <v>0.88052699999999995</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <v>0.62014899999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
@@ -1852,14 +1903,15 @@
         <f t="shared" si="0"/>
         <v>0.51011580383531752</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="14"/>
+      <c r="F51" s="8">
         <v>0.840001</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G51" s="6">
         <v>0.54778400000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -1873,14 +1925,15 @@
         <f t="shared" si="0"/>
         <v>0.77957273147707651</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="14"/>
+      <c r="F52" s="8">
         <v>0.95083099999999998</v>
       </c>
-      <c r="F52" s="6">
+      <c r="G52" s="6">
         <v>0.43771300000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -1894,14 +1947,15 @@
         <f t="shared" si="0"/>
         <v>0.77325925585202304</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="14"/>
+      <c r="F53" s="8">
         <v>0.93464499999999995</v>
       </c>
-      <c r="F53" s="6">
+      <c r="G53" s="6">
         <v>0.46362900000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -1915,14 +1969,15 @@
         <f t="shared" si="0"/>
         <v>0.41742881252114272</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="14"/>
+      <c r="F54" s="8">
         <v>0.79074</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G54" s="6">
         <v>0.32536399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>59</v>
       </c>
@@ -1936,19 +1991,20 @@
         <f t="shared" si="0"/>
         <v>0.53960161981198795</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10">
         <v>0.82158900000000001</v>
       </c>
-      <c r="F55" s="11">
+      <c r="G55" s="11">
         <v>0.39680300000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>0</v>
       </c>
@@ -1960,22 +2016,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="E28" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="3" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1988,14 +2044,15 @@
       <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2009,14 +2066,15 @@
         <f>C2/$C$56</f>
         <v>0.13134685173238159</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>0.22769800000000001</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>6.4909999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2030,14 +2088,15 @@
         <f t="shared" ref="D3:D55" si="0">C3/$C$56</f>
         <v>0.30155098844964173</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2"/>
+      <c r="F3" s="5">
         <v>0.21872900000000001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>0.15590999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2051,14 +2110,15 @@
         <f t="shared" si="0"/>
         <v>6.2495256942301701E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2"/>
+      <c r="F4" s="5">
         <v>0.16520799999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>4.0589E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2072,15 +2132,16 @@
         <f t="shared" si="0"/>
         <v>0.13091083056736466</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="5">
         <v>0.30379800000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>0.10391300000000001</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2094,14 +2155,15 @@
         <f t="shared" si="0"/>
         <v>0.15106498175914634</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2"/>
+      <c r="F6" s="5">
         <v>0.227157</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>0.15550800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -2115,14 +2177,15 @@
         <f t="shared" si="0"/>
         <v>9.9929607416096994E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2"/>
+      <c r="F7" s="5">
         <v>0.17494799999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>7.0831000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -2136,14 +2199,15 @@
         <f t="shared" si="0"/>
         <v>0.17993826983361155</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2"/>
+      <c r="F8" s="5">
         <v>0.40174100000000001</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>6.0528999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2157,14 +2221,15 @@
         <f t="shared" si="0"/>
         <v>8.9470007026357046E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2"/>
+      <c r="F9" s="5">
         <v>0.24038699999999999</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>0.13486400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -2178,14 +2243,15 @@
         <f t="shared" si="0"/>
         <v>0.12609810571560084</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2"/>
+      <c r="F10" s="5">
         <v>0.206925</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>0.12578400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -2199,14 +2265,15 @@
         <f t="shared" si="0"/>
         <v>6.7272306355905948E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2"/>
+      <c r="F11" s="5">
         <v>0.14896300000000001</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>6.0044E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2220,14 +2287,15 @@
         <f t="shared" si="0"/>
         <v>0.38012418374468215</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2"/>
+      <c r="F12" s="5">
         <v>0.61482099999999995</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>0.32380999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -2241,14 +2309,15 @@
         <f t="shared" si="0"/>
         <v>0.43151139096641161</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2"/>
+      <c r="F13" s="5">
         <v>0.76878500000000005</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>0.19509399999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2262,14 +2331,15 @@
         <f t="shared" si="0"/>
         <v>0.51777225327856946</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2"/>
+      <c r="F14" s="5">
         <v>0.76208799999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>0.486904</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2283,14 +2353,15 @@
         <f t="shared" si="0"/>
         <v>9.5940719649132603E-2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2"/>
+      <c r="F15" s="5">
         <v>0.18540300000000001</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>3.0539E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2304,14 +2375,15 @@
         <f t="shared" si="0"/>
         <v>0.10616873432774079</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2"/>
+      <c r="F16" s="5">
         <v>0.14846300000000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>6.8833000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2325,14 +2397,15 @@
         <f t="shared" si="0"/>
         <v>0.12652877987927585</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2"/>
+      <c r="F17" s="5">
         <v>0.27120499999999997</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <v>8.2303000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2346,14 +2419,15 @@
         <f t="shared" si="0"/>
         <v>0.11513723071349825</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2"/>
+      <c r="F18" s="5">
         <v>0.17042499999999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <v>7.6034000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2367,14 +2441,15 @@
         <f t="shared" si="0"/>
         <v>0.14815545219108256</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2"/>
+      <c r="F19" s="5">
         <v>0.299456</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <v>0.13539399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -2388,14 +2463,15 @@
         <f t="shared" si="0"/>
         <v>0.221218084940249</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="2"/>
+      <c r="F20" s="5">
         <v>0.66976500000000005</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <v>0.153087</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -2409,14 +2485,15 @@
         <f t="shared" si="0"/>
         <v>0.1540678183571029</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2"/>
+      <c r="F21" s="5">
         <v>0.44046200000000002</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <v>0.16022900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -2430,14 +2507,15 @@
         <f t="shared" si="0"/>
         <v>0.20522710217565771</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="2"/>
+      <c r="F22" s="5">
         <v>0.39765899999999998</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <v>0.29169499999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -2451,14 +2529,15 @@
         <f t="shared" si="0"/>
         <v>0.60178226869319196</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2"/>
+      <c r="F23" s="5">
         <v>0.78525999999999996</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <v>0.61427299999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -2472,14 +2551,15 @@
         <f t="shared" si="0"/>
         <v>0.37085059438483536</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="2"/>
+      <c r="F24" s="5">
         <v>0.65768099999999996</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>0.44308199999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -2493,14 +2573,15 @@
         <f t="shared" si="0"/>
         <v>0.37314782052036133</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="2"/>
+      <c r="F25" s="5">
         <v>0.72621100000000005</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <v>0.47788199999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -2514,14 +2595,15 @@
         <f t="shared" si="0"/>
         <v>0.69035650265897952</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="2"/>
+      <c r="F26" s="5">
         <v>0.93082799999999999</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <v>0.53778000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -2535,14 +2617,15 @@
         <f t="shared" si="0"/>
         <v>0.60540425050795799</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="2"/>
+      <c r="F27" s="5">
         <v>0.88909300000000002</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <v>0.38292700000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -2556,14 +2639,15 @@
         <f t="shared" si="0"/>
         <v>0.66608402302319702</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="2"/>
+      <c r="F28" s="5">
         <v>0.76297700000000002</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <v>0.50174799999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -2577,14 +2661,15 @@
         <f t="shared" si="0"/>
         <v>0.3867995547499854</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="2"/>
+      <c r="F29" s="5">
         <v>0.78857100000000002</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <v>0.32491900000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -2598,14 +2683,15 @@
         <f t="shared" si="0"/>
         <v>0.46991862448137867</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="2"/>
+      <c r="F30" s="5">
         <v>0.74150000000000005</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="6">
         <v>0.159188</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -2619,14 +2705,15 @@
         <f t="shared" si="0"/>
         <v>0.43070465257302371</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="2"/>
+      <c r="F31" s="5">
         <v>0.67496400000000001</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <v>0.399171</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2640,14 +2727,15 @@
         <f t="shared" si="0"/>
         <v>0.70178700571594599</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="2"/>
+      <c r="F32" s="5">
         <v>0.88836300000000001</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <v>0.58284400000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2661,14 +2749,15 @@
         <f t="shared" si="0"/>
         <v>0.72881523290451899</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="2"/>
+      <c r="F33" s="5">
         <v>0.91929799999999995</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <v>0.57755500000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -2682,14 +2771,15 @@
         <f t="shared" si="0"/>
         <v>0.80713674155265847</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="2"/>
+      <c r="F34" s="5">
         <v>0.93340900000000004</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <v>0.488927</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -2703,14 +2793,15 @@
         <f t="shared" si="0"/>
         <v>0.86821888659436153</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="2"/>
+      <c r="F35" s="5">
         <v>0.93057000000000001</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <v>0.450154</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -2724,14 +2815,15 @@
         <f t="shared" si="0"/>
         <v>0.61178997818778447</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="2"/>
+      <c r="F36" s="5">
         <v>0.86926099999999995</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <v>0.53374900000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -2745,14 +2837,15 @@
         <f t="shared" si="0"/>
         <v>0.68830104353154253</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="2"/>
+      <c r="F37" s="5">
         <v>0.91250399999999998</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <v>0.55821399999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -2766,14 +2859,15 @@
         <f t="shared" si="0"/>
         <v>0.81048320344460101</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="2"/>
+      <c r="F38" s="5">
         <v>0.90431099999999998</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="6">
         <v>0.46475699999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -2787,14 +2881,15 @@
         <f t="shared" si="0"/>
         <v>0.65936369486583202</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="2"/>
+      <c r="F39" s="5">
         <v>0.90423600000000004</v>
       </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6">
         <v>0.52638099999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -2808,14 +2903,15 @@
         <f t="shared" si="0"/>
         <v>0.44788776653038587</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="2"/>
+      <c r="F40" s="5">
         <v>0.74711700000000003</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="6">
         <v>0.36332199999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -2829,14 +2925,15 @@
         <f t="shared" si="0"/>
         <v>0.77257823970532502</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="2"/>
+      <c r="F41" s="5">
         <v>0.89873400000000003</v>
       </c>
-      <c r="F41" s="6">
+      <c r="G41" s="6">
         <v>0.57440999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -2850,14 +2947,15 @@
         <f t="shared" si="0"/>
         <v>0.67607604461257753</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="2"/>
+      <c r="F42" s="5">
         <v>0.85900600000000005</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <v>0.531775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -2871,14 +2969,15 @@
         <f t="shared" si="0"/>
         <v>0.51996543305775955</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="2"/>
+      <c r="F43" s="5">
         <v>0.72704800000000003</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43" s="6">
         <v>0.28867799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -2892,14 +2991,15 @@
         <f t="shared" si="0"/>
         <v>0.26628310811178613</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="2"/>
+      <c r="F44" s="5">
         <v>0.64593699999999998</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <v>0.29030299999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -2913,14 +3013,15 @@
         <f t="shared" si="0"/>
         <v>0.72494146964392403</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="2"/>
+      <c r="F45" s="5">
         <v>0.91262399999999999</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G45" s="6">
         <v>0.48878199999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -2934,14 +3035,15 @@
         <f t="shared" si="0"/>
         <v>0.65800159903112798</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="2"/>
+      <c r="F46" s="5">
         <v>0.85257400000000005</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <v>0.46570299999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
@@ -2955,14 +3057,15 @@
         <f t="shared" si="0"/>
         <v>0.82544816868518955</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="2"/>
+      <c r="F47" s="5">
         <v>0.92509799999999998</v>
       </c>
-      <c r="F47" s="6">
+      <c r="G47" s="6">
         <v>0.57866700000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
@@ -2976,14 +3079,15 @@
         <f t="shared" si="0"/>
         <v>0.60802644964540198</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="2"/>
+      <c r="F48" s="5">
         <v>0.86177000000000004</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <v>0.46397500000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
@@ -2997,14 +3101,15 @@
         <f t="shared" si="0"/>
         <v>0.76940409339753502</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="2"/>
+      <c r="F49" s="5">
         <v>0.92680600000000002</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <v>0.50206600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -3018,14 +3123,15 @@
         <f t="shared" si="0"/>
         <v>0.65242160635876201</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="2"/>
+      <c r="F50" s="5">
         <v>0.88052699999999995</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <v>0.62014899999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
@@ -3039,14 +3145,15 @@
         <f t="shared" si="0"/>
         <v>0.65654008311167755</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="2"/>
+      <c r="F51" s="5">
         <v>0.840001</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G51" s="6">
         <v>0.54778400000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -3060,14 +3167,15 @@
         <f t="shared" si="0"/>
         <v>0.64513312370650799</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="2"/>
+      <c r="F52" s="5">
         <v>0.95083099999999998</v>
       </c>
-      <c r="F52" s="6">
+      <c r="G52" s="6">
         <v>0.43771300000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -3081,14 +3189,15 @@
         <f t="shared" si="0"/>
         <v>0.61078488514764151</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="2"/>
+      <c r="F53" s="5">
         <v>0.93464499999999995</v>
       </c>
-      <c r="F53" s="6">
+      <c r="G53" s="6">
         <v>0.46362900000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -3102,14 +3211,15 @@
         <f t="shared" si="0"/>
         <v>0.46566030005824083</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="2"/>
+      <c r="F54" s="5">
         <v>0.79074</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G54" s="6">
         <v>0.32536399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>59</v>
       </c>
@@ -3123,14 +3233,15 @@
         <f t="shared" si="0"/>
         <v>0.58502721490326504</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10">
         <v>0.82158900000000001</v>
       </c>
-      <c r="F55" s="11">
+      <c r="G55" s="11">
         <v>0.39680300000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>2</v>
       </c>
@@ -3142,22 +3253,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="3" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3170,14 +3281,15 @@
       <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3191,14 +3303,15 @@
         <f>C2/$C$56</f>
         <v>3.8562472218489713E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>0.22769800000000001</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>6.4909999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3212,14 +3325,15 @@
         <f t="shared" ref="D3:D55" si="0">C3/$C$56</f>
         <v>0.11905777725204625</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="14"/>
+      <c r="F3" s="5">
         <v>0.21872900000000001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>0.15590999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3233,14 +3347,15 @@
         <f t="shared" si="0"/>
         <v>4.229271875901168E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="14"/>
+      <c r="F4" s="5">
         <v>0.16520799999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>4.0589E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3254,14 +3369,15 @@
         <f t="shared" si="0"/>
         <v>8.8843469090523847E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="14"/>
+      <c r="F5" s="5">
         <v>0.30379800000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>0.10391300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -3275,14 +3391,15 @@
         <f t="shared" si="0"/>
         <v>0.13730616904353965</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="14"/>
+      <c r="F6" s="5">
         <v>0.227157</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>0.15550800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -3296,14 +3413,15 @@
         <f t="shared" si="0"/>
         <v>0.12700166208659786</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="14"/>
+      <c r="F7" s="5">
         <v>0.17494799999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>7.0831000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3317,14 +3435,15 @@
         <f t="shared" si="0"/>
         <v>7.5960548097233002E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="14"/>
+      <c r="F8" s="5">
         <v>0.40174100000000001</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>6.0528999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3338,14 +3457,15 @@
         <f t="shared" si="0"/>
         <v>0.14190945744873279</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="14"/>
+      <c r="F9" s="5">
         <v>0.24038699999999999</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>0.13486400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -3359,14 +3479,15 @@
         <f t="shared" si="0"/>
         <v>0.14938490768898621</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="14"/>
+      <c r="F10" s="5">
         <v>0.206925</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>0.12578400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -3380,14 +3501,15 @@
         <f t="shared" si="0"/>
         <v>0.10653179531510749</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="14"/>
+      <c r="F11" s="5">
         <v>0.14896300000000001</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>6.0044E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -3401,14 +3523,15 @@
         <f t="shared" si="0"/>
         <v>0.16886449653848995</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="14"/>
+      <c r="F12" s="5">
         <v>0.61482099999999995</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>0.32380999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -3422,14 +3545,15 @@
         <f t="shared" si="0"/>
         <v>8.7407789241527506E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="14"/>
+      <c r="F13" s="5">
         <v>0.76878500000000005</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>0.19509399999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -3443,14 +3567,15 @@
         <f t="shared" si="0"/>
         <v>9.3687191401811101E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="14"/>
+      <c r="F14" s="5">
         <v>0.76208799999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>0.486904</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -3464,14 +3589,15 @@
         <f t="shared" si="0"/>
         <v>2.3267530624989381E-2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="14"/>
+      <c r="F15" s="5">
         <v>0.18540300000000001</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>3.0539E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -3485,14 +3611,15 @@
         <f t="shared" si="0"/>
         <v>0.10730984263310475</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="14"/>
+      <c r="F16" s="5">
         <v>0.14846300000000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>6.8833000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -3506,14 +3633,15 @@
         <f t="shared" si="0"/>
         <v>6.3777678749984953E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="14"/>
+      <c r="F17" s="5">
         <v>0.27120499999999997</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <v>8.2303000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -3527,14 +3655,15 @@
         <f t="shared" si="0"/>
         <v>7.9559606476670056E-2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="14"/>
+      <c r="F18" s="5">
         <v>0.17042499999999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <v>7.6034000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3548,14 +3677,15 @@
         <f t="shared" si="0"/>
         <v>0.10415706552824119</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="14"/>
+      <c r="F19" s="5">
         <v>0.299456</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <v>0.13539399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -3569,14 +3699,15 @@
         <f t="shared" si="0"/>
         <v>4.776616875553133E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="14"/>
+      <c r="F20" s="5">
         <v>0.66976500000000005</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <v>0.153087</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -3590,14 +3721,15 @@
         <f t="shared" si="0"/>
         <v>0.1067683715227056</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="14"/>
+      <c r="F21" s="5">
         <v>0.44046200000000002</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <v>0.16022900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -3611,14 +3743,15 @@
         <f t="shared" si="0"/>
         <v>0.10946409417673696</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="14"/>
+      <c r="F22" s="5">
         <v>0.39765899999999998</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <v>0.29169499999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -3632,14 +3765,15 @@
         <f t="shared" si="0"/>
         <v>0.1658660849333011</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="14"/>
+      <c r="F23" s="5">
         <v>0.78525999999999996</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <v>0.61427299999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -3653,14 +3787,15 @@
         <f t="shared" si="0"/>
         <v>0.18361298645571861</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="14"/>
+      <c r="F24" s="5">
         <v>0.65768099999999996</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>0.44308199999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -3674,14 +3809,15 @@
         <f t="shared" si="0"/>
         <v>0.13589827675262225</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="14"/>
+      <c r="F25" s="5">
         <v>0.72621100000000005</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <v>0.47788199999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -3695,14 +3831,15 @@
         <f t="shared" si="0"/>
         <v>0.15235521803533694</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="14"/>
+      <c r="F26" s="5">
         <v>0.93082799999999999</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <v>0.53778000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -3716,14 +3853,15 @@
         <f t="shared" si="0"/>
         <v>0.16399710644943896</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="14"/>
+      <c r="F27" s="5">
         <v>0.88909300000000002</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <v>0.38292700000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -3737,14 +3875,15 @@
         <f t="shared" si="0"/>
         <v>0.11223880311077045</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="14"/>
+      <c r="F28" s="5">
         <v>0.76297700000000002</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <v>0.50174799999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -3758,14 +3897,15 @@
         <f t="shared" si="0"/>
         <v>8.4400171652541101E-2</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="14"/>
+      <c r="F29" s="5">
         <v>0.78857100000000002</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <v>0.32491900000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -3779,14 +3919,15 @@
         <f t="shared" si="0"/>
         <v>0.1237053085183815</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="14"/>
+      <c r="F30" s="5">
         <v>0.74150000000000005</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="6">
         <v>0.159188</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -3800,14 +3941,15 @@
         <f t="shared" si="0"/>
         <v>0.13187283567228611</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="14"/>
+      <c r="F31" s="5">
         <v>0.67496400000000001</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <v>0.399171</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -3821,14 +3963,15 @@
         <f t="shared" si="0"/>
         <v>0.12468123415993899</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="14"/>
+      <c r="F32" s="5">
         <v>0.88836300000000001</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <v>0.58284400000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -3842,14 +3985,15 @@
         <f t="shared" si="0"/>
         <v>0.1755128158420062</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="14"/>
+      <c r="F33" s="5">
         <v>0.91929799999999995</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <v>0.57755500000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -3863,14 +4007,15 @@
         <f t="shared" si="0"/>
         <v>0.2286492135063902</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="14"/>
+      <c r="F34" s="5">
         <v>0.93340900000000004</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <v>0.488927</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -3884,14 +4029,15 @@
         <f t="shared" si="0"/>
         <v>0.21133346729699201</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="14"/>
+      <c r="F35" s="5">
         <v>0.93057000000000001</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <v>0.450154</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -3905,14 +4051,15 @@
         <f t="shared" si="0"/>
         <v>0.24596309391315169</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="14"/>
+      <c r="F36" s="5">
         <v>0.86926099999999995</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <v>0.53374900000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -3926,14 +4073,15 @@
         <f t="shared" si="0"/>
         <v>0.22038755843475979</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="14"/>
+      <c r="F37" s="5">
         <v>0.91250399999999998</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <v>0.55821399999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -3947,14 +4095,15 @@
         <f t="shared" si="0"/>
         <v>0.15244382052644606</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="14"/>
+      <c r="F38" s="5">
         <v>0.90431099999999998</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="6">
         <v>0.46475699999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -3968,14 +4117,15 @@
         <f t="shared" si="0"/>
         <v>0.37884237877207638</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="14"/>
+      <c r="F39" s="5">
         <v>0.90423600000000004</v>
       </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6">
         <v>0.52638099999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -3989,14 +4139,15 @@
         <f t="shared" si="0"/>
         <v>0.19485915178294205</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="14"/>
+      <c r="F40" s="5">
         <v>0.74711700000000003</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="6">
         <v>0.36332199999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -4010,14 +4161,15 @@
         <f t="shared" si="0"/>
         <v>0.17856059352895465</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="14"/>
+      <c r="F41" s="5">
         <v>0.89873400000000003</v>
       </c>
-      <c r="F41" s="6">
+      <c r="G41" s="6">
         <v>0.57440999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -4031,14 +4183,15 @@
         <f t="shared" si="0"/>
         <v>0.16935481082090709</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="14"/>
+      <c r="F42" s="5">
         <v>0.85900600000000005</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <v>0.531775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -4052,14 +4205,15 @@
         <f t="shared" si="0"/>
         <v>0.11541284810017489</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="14"/>
+      <c r="F43" s="5">
         <v>0.72704800000000003</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43" s="6">
         <v>0.28867799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -4073,14 +4227,15 @@
         <f t="shared" si="0"/>
         <v>0.15388368955328871</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="14"/>
+      <c r="F44" s="5">
         <v>0.64593699999999998</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <v>0.29030299999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -4094,14 +4249,15 @@
         <f t="shared" si="0"/>
         <v>0.54356145638340148</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="14"/>
+      <c r="F45" s="5">
         <v>0.91262399999999999</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G45" s="6">
         <v>0.48878199999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -4115,14 +4271,15 @@
         <f t="shared" si="0"/>
         <v>0.12450941512710174</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="14"/>
+      <c r="F46" s="5">
         <v>0.85257400000000005</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <v>0.46570299999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
@@ -4136,14 +4293,15 @@
         <f t="shared" si="0"/>
         <v>0.31380799333998438</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="14"/>
+      <c r="F47" s="5">
         <v>0.92509799999999998</v>
       </c>
-      <c r="F47" s="6">
+      <c r="G47" s="6">
         <v>0.57866700000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
@@ -4157,14 +4315,15 @@
         <f t="shared" si="0"/>
         <v>0.17511857104778975</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="14"/>
+      <c r="F48" s="5">
         <v>0.86177000000000004</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <v>0.46397500000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
@@ -4178,14 +4337,15 @@
         <f t="shared" si="0"/>
         <v>0.27186512295703408</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="14"/>
+      <c r="F49" s="5">
         <v>0.92680600000000002</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <v>0.50206600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -4199,14 +4359,15 @@
         <f t="shared" si="0"/>
         <v>0.21048476757474374</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="14"/>
+      <c r="F50" s="5">
         <v>0.88052699999999995</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <v>0.62014899999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
@@ -4220,14 +4381,15 @@
         <f t="shared" si="0"/>
         <v>0.14218295568618194</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="14"/>
+      <c r="F51" s="5">
         <v>0.840001</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G51" s="6">
         <v>0.54778400000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -4241,14 +4403,15 @@
         <f t="shared" si="0"/>
         <v>0.23080046401218079</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="14"/>
+      <c r="F52" s="5">
         <v>0.95083099999999998</v>
       </c>
-      <c r="F52" s="6">
+      <c r="G52" s="6">
         <v>0.43771300000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -4262,14 +4425,15 @@
         <f t="shared" si="0"/>
         <v>0.41184476158480388</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="14"/>
+      <c r="F53" s="5">
         <v>0.93464499999999995</v>
       </c>
-      <c r="F53" s="6">
+      <c r="G53" s="6">
         <v>0.46362900000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -4283,14 +4447,15 @@
         <f t="shared" si="0"/>
         <v>0.11701524231970475</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="14"/>
+      <c r="F54" s="5">
         <v>0.79074</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G54" s="6">
         <v>0.32536399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>59</v>
       </c>
@@ -4304,19 +4469,20 @@
         <f t="shared" si="0"/>
         <v>0.1427030946873824</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10">
         <v>0.82158900000000001</v>
       </c>
-      <c r="F55" s="11">
+      <c r="G55" s="11">
         <v>0.39680300000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>0</v>
       </c>
